--- a/Booklet-Template.xlsx
+++ b/Booklet-Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20358"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20370"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\TBA\08_Studien\06_Konsole-Erprobung\Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="X:\.Net\Parkplatz\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E82D4D2-ADF7-4E18-AFEA-4786849875DB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8354A5E0-254B-49FB-9630-BB87343C4F00}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-15" yWindow="-15" windowWidth="20520" windowHeight="7560" tabRatio="369" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11895" tabRatio="369" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Units" sheetId="5" r:id="rId1"/>
@@ -20,14 +20,10 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Units!$A$2:$E$21</definedName>
-    <definedName name="bookletsCol.Description">#REF!</definedName>
-    <definedName name="bookletsCol.FirstElement">#REF!</definedName>
-    <definedName name="bookletsCol.ID">#REF!</definedName>
-    <definedName name="bookletsCol.Title">#REF!</definedName>
-    <definedName name="bookletsSPFCol.Description">Testheft!$C$3</definedName>
-    <definedName name="bookletsSPFCol.FirstElement">Testheft!$D$3</definedName>
-    <definedName name="bookletsSPFCol.ID">Testheft!$A$3</definedName>
-    <definedName name="bookletsSPFCol.Title">Testheft!$B$3</definedName>
+    <definedName name="bookletsCol.Description">Testheft!$C$3</definedName>
+    <definedName name="bookletsCol.FirstElement">Testheft!$D$3</definedName>
+    <definedName name="bookletsCol.ID">Testheft!$A$3</definedName>
+    <definedName name="bookletsCol.Title">Testheft!$B$3</definedName>
     <definedName name="customText.Key">Textersetzungen!$A$5</definedName>
     <definedName name="customText.Value">Textersetzungen!$B$5</definedName>
     <definedName name="startlock.prefix">Textersetzungen!$B$2</definedName>
@@ -1330,7 +1326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
@@ -1819,8 +1815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:S4"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
